--- a/ODE/Figures/Supplemental_Results.xlsx
+++ b/ODE/Figures/Supplemental_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Co-Administration_Influenza_COVID\SARS_CoV_2\Seasonal_SARS_CoV2_Vaccination\ODE\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF35D8A0-D10C-43CB-910F-66213B5CF248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F6069-0D6A-4DB6-B8A8-098DAA467A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Supplemental Table 3: </t>
+      <t xml:space="preserve">Supplement Table 3: </t>
     </r>
     <r>
       <rPr>
@@ -585,14 +585,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -600,22 +594,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -934,6 +931,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -951,529 +951,529 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="35.25" customHeight="1">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="1"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="1"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="1"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="1"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1503,7 +1503,7 @@
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="D27" s="8"/>
+      <c r="D27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1518,7 +1518,7 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="84" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>